--- a/po_analysis_by_asin/B0971BRCM4_po_data.xlsx
+++ b/po_analysis_by_asin/B0971BRCM4_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -677,7 +678,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -743,6 +744,509 @@
       </c>
       <c r="B9" t="n">
         <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>189</v>
+      </c>
+      <c r="C2" t="n">
+        <v>60.05047004731592</v>
+      </c>
+      <c r="D2" t="n">
+        <v>320.7070097236362</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C3" t="n">
+        <v>58.4870503785903</v>
+      </c>
+      <c r="D3" t="n">
+        <v>306.2308363186708</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>178</v>
+      </c>
+      <c r="C4" t="n">
+        <v>59.51537437510949</v>
+      </c>
+      <c r="D4" t="n">
+        <v>295.5692808801745</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>172</v>
+      </c>
+      <c r="C5" t="n">
+        <v>41.3946678587992</v>
+      </c>
+      <c r="D5" t="n">
+        <v>297.5592920962633</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>169</v>
+      </c>
+      <c r="C6" t="n">
+        <v>39.39901090786323</v>
+      </c>
+      <c r="D6" t="n">
+        <v>294.281082405762</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>163</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37.27359425536577</v>
+      </c>
+      <c r="D7" t="n">
+        <v>287.717614685934</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>160</v>
+      </c>
+      <c r="C8" t="n">
+        <v>32.496288248044</v>
+      </c>
+      <c r="D8" t="n">
+        <v>283.0328730360682</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>157</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30.98504833201339</v>
+      </c>
+      <c r="D9" t="n">
+        <v>278.0002230806307</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>154</v>
+      </c>
+      <c r="C10" t="n">
+        <v>36.91970631909386</v>
+      </c>
+      <c r="D10" t="n">
+        <v>270.3878437324735</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>151</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.837341592928</v>
+      </c>
+      <c r="D11" t="n">
+        <v>271.1229989800068</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>148</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31.47985220687629</v>
+      </c>
+      <c r="D12" t="n">
+        <v>257.7332821738713</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>145</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31.32792496270732</v>
+      </c>
+      <c r="D13" t="n">
+        <v>276.4390234639757</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>142</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27.14289328172596</v>
+      </c>
+      <c r="D14" t="n">
+        <v>265.1539613400683</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>139</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.6309359632685171</v>
+      </c>
+      <c r="D15" t="n">
+        <v>266.5652163494067</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>137</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.976751104264886</v>
+      </c>
+      <c r="D16" t="n">
+        <v>253.8257288409463</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>131</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.657702842916057</v>
+      </c>
+      <c r="D17" t="n">
+        <v>246.6752207795767</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>125</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2483766575570169</v>
+      </c>
+      <c r="D18" t="n">
+        <v>244.1486003133364</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>122</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-7.18524203954901</v>
+      </c>
+      <c r="D19" t="n">
+        <v>241.4652814474676</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>119</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-4.654192741056016</v>
+      </c>
+      <c r="D20" t="n">
+        <v>229.8846095774234</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>113</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.020719733805517</v>
+      </c>
+      <c r="D21" t="n">
+        <v>232.8035862816917</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>110</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-7.598237994079819</v>
+      </c>
+      <c r="D22" t="n">
+        <v>236.6937499258818</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>107</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-22.01086369808385</v>
+      </c>
+      <c r="D23" t="n">
+        <v>227.7393469286588</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>104</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-15.03854194033911</v>
+      </c>
+      <c r="D24" t="n">
+        <v>226.2715853147117</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>98</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-18.41423338702263</v>
+      </c>
+      <c r="D25" t="n">
+        <v>227.0846786849954</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>96</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-21.71695737039369</v>
+      </c>
+      <c r="D26" t="n">
+        <v>209.4819992051784</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>93</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-22.7525794055598</v>
+      </c>
+      <c r="D27" t="n">
+        <v>217.6790358187251</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>90</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-37.35191630477956</v>
+      </c>
+      <c r="D28" t="n">
+        <v>222.4576039408016</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>87</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-35.49433307756857</v>
+      </c>
+      <c r="D29" t="n">
+        <v>209.228264630636</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>84</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-31.77990119933714</v>
+      </c>
+      <c r="D30" t="n">
+        <v>210.6935759524032</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>81</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-38.27664496214371</v>
+      </c>
+      <c r="D31" t="n">
+        <v>210.8625199828471</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>78</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-39.03997032739916</v>
+      </c>
+      <c r="D32" t="n">
+        <v>200.8699286350494</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>75</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-47.55756785707407</v>
+      </c>
+      <c r="D33" t="n">
+        <v>199.0174897106794</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>72</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-43.40630521889556</v>
+      </c>
+      <c r="D34" t="n">
+        <v>203.9040616000127</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0971BRCM4_po_data.xlsx
+++ b/po_analysis_by_asin/B0971BRCM4_po_data.xlsx
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,16 +776,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -794,12 +784,6 @@
       <c r="B2" t="n">
         <v>189</v>
       </c>
-      <c r="C2" t="n">
-        <v>60.05047004731592</v>
-      </c>
-      <c r="D2" t="n">
-        <v>320.7070097236362</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -808,12 +792,6 @@
       <c r="B3" t="n">
         <v>180</v>
       </c>
-      <c r="C3" t="n">
-        <v>58.4870503785903</v>
-      </c>
-      <c r="D3" t="n">
-        <v>306.2308363186708</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -822,12 +800,6 @@
       <c r="B4" t="n">
         <v>178</v>
       </c>
-      <c r="C4" t="n">
-        <v>59.51537437510949</v>
-      </c>
-      <c r="D4" t="n">
-        <v>295.5692808801745</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -836,12 +808,6 @@
       <c r="B5" t="n">
         <v>172</v>
       </c>
-      <c r="C5" t="n">
-        <v>41.3946678587992</v>
-      </c>
-      <c r="D5" t="n">
-        <v>297.5592920962633</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -850,12 +816,6 @@
       <c r="B6" t="n">
         <v>169</v>
       </c>
-      <c r="C6" t="n">
-        <v>39.39901090786323</v>
-      </c>
-      <c r="D6" t="n">
-        <v>294.281082405762</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -864,12 +824,6 @@
       <c r="B7" t="n">
         <v>163</v>
       </c>
-      <c r="C7" t="n">
-        <v>37.27359425536577</v>
-      </c>
-      <c r="D7" t="n">
-        <v>287.717614685934</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -878,12 +832,6 @@
       <c r="B8" t="n">
         <v>160</v>
       </c>
-      <c r="C8" t="n">
-        <v>32.496288248044</v>
-      </c>
-      <c r="D8" t="n">
-        <v>283.0328730360682</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -892,12 +840,6 @@
       <c r="B9" t="n">
         <v>157</v>
       </c>
-      <c r="C9" t="n">
-        <v>30.98504833201339</v>
-      </c>
-      <c r="D9" t="n">
-        <v>278.0002230806307</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -906,12 +848,6 @@
       <c r="B10" t="n">
         <v>154</v>
       </c>
-      <c r="C10" t="n">
-        <v>36.91970631909386</v>
-      </c>
-      <c r="D10" t="n">
-        <v>270.3878437324735</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -920,12 +856,6 @@
       <c r="B11" t="n">
         <v>151</v>
       </c>
-      <c r="C11" t="n">
-        <v>26.837341592928</v>
-      </c>
-      <c r="D11" t="n">
-        <v>271.1229989800068</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -934,12 +864,6 @@
       <c r="B12" t="n">
         <v>148</v>
       </c>
-      <c r="C12" t="n">
-        <v>31.47985220687629</v>
-      </c>
-      <c r="D12" t="n">
-        <v>257.7332821738713</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -948,12 +872,6 @@
       <c r="B13" t="n">
         <v>145</v>
       </c>
-      <c r="C13" t="n">
-        <v>31.32792496270732</v>
-      </c>
-      <c r="D13" t="n">
-        <v>276.4390234639757</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -962,12 +880,6 @@
       <c r="B14" t="n">
         <v>142</v>
       </c>
-      <c r="C14" t="n">
-        <v>27.14289328172596</v>
-      </c>
-      <c r="D14" t="n">
-        <v>265.1539613400683</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -976,12 +888,6 @@
       <c r="B15" t="n">
         <v>139</v>
       </c>
-      <c r="C15" t="n">
-        <v>-0.6309359632685171</v>
-      </c>
-      <c r="D15" t="n">
-        <v>266.5652163494067</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -990,12 +896,6 @@
       <c r="B16" t="n">
         <v>137</v>
       </c>
-      <c r="C16" t="n">
-        <v>6.976751104264886</v>
-      </c>
-      <c r="D16" t="n">
-        <v>253.8257288409463</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1004,12 +904,6 @@
       <c r="B17" t="n">
         <v>131</v>
       </c>
-      <c r="C17" t="n">
-        <v>6.657702842916057</v>
-      </c>
-      <c r="D17" t="n">
-        <v>246.6752207795767</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1018,12 +912,6 @@
       <c r="B18" t="n">
         <v>125</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.2483766575570169</v>
-      </c>
-      <c r="D18" t="n">
-        <v>244.1486003133364</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1032,12 +920,6 @@
       <c r="B19" t="n">
         <v>122</v>
       </c>
-      <c r="C19" t="n">
-        <v>-7.18524203954901</v>
-      </c>
-      <c r="D19" t="n">
-        <v>241.4652814474676</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1046,12 +928,6 @@
       <c r="B20" t="n">
         <v>119</v>
       </c>
-      <c r="C20" t="n">
-        <v>-4.654192741056016</v>
-      </c>
-      <c r="D20" t="n">
-        <v>229.8846095774234</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1060,12 +936,6 @@
       <c r="B21" t="n">
         <v>113</v>
       </c>
-      <c r="C21" t="n">
-        <v>-4.020719733805517</v>
-      </c>
-      <c r="D21" t="n">
-        <v>232.8035862816917</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1074,12 +944,6 @@
       <c r="B22" t="n">
         <v>110</v>
       </c>
-      <c r="C22" t="n">
-        <v>-7.598237994079819</v>
-      </c>
-      <c r="D22" t="n">
-        <v>236.6937499258818</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1088,12 +952,6 @@
       <c r="B23" t="n">
         <v>107</v>
       </c>
-      <c r="C23" t="n">
-        <v>-22.01086369808385</v>
-      </c>
-      <c r="D23" t="n">
-        <v>227.7393469286588</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1102,12 +960,6 @@
       <c r="B24" t="n">
         <v>104</v>
       </c>
-      <c r="C24" t="n">
-        <v>-15.03854194033911</v>
-      </c>
-      <c r="D24" t="n">
-        <v>226.2715853147117</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1116,12 +968,6 @@
       <c r="B25" t="n">
         <v>98</v>
       </c>
-      <c r="C25" t="n">
-        <v>-18.41423338702263</v>
-      </c>
-      <c r="D25" t="n">
-        <v>227.0846786849954</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1130,12 +976,6 @@
       <c r="B26" t="n">
         <v>96</v>
       </c>
-      <c r="C26" t="n">
-        <v>-21.71695737039369</v>
-      </c>
-      <c r="D26" t="n">
-        <v>209.4819992051784</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1144,12 +984,6 @@
       <c r="B27" t="n">
         <v>93</v>
       </c>
-      <c r="C27" t="n">
-        <v>-22.7525794055598</v>
-      </c>
-      <c r="D27" t="n">
-        <v>217.6790358187251</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1158,12 +992,6 @@
       <c r="B28" t="n">
         <v>90</v>
       </c>
-      <c r="C28" t="n">
-        <v>-37.35191630477956</v>
-      </c>
-      <c r="D28" t="n">
-        <v>222.4576039408016</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1172,12 +1000,6 @@
       <c r="B29" t="n">
         <v>87</v>
       </c>
-      <c r="C29" t="n">
-        <v>-35.49433307756857</v>
-      </c>
-      <c r="D29" t="n">
-        <v>209.228264630636</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1186,12 +1008,6 @@
       <c r="B30" t="n">
         <v>84</v>
       </c>
-      <c r="C30" t="n">
-        <v>-31.77990119933714</v>
-      </c>
-      <c r="D30" t="n">
-        <v>210.6935759524032</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1200,12 +1016,6 @@
       <c r="B31" t="n">
         <v>81</v>
       </c>
-      <c r="C31" t="n">
-        <v>-38.27664496214371</v>
-      </c>
-      <c r="D31" t="n">
-        <v>210.8625199828471</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1214,12 +1024,6 @@
       <c r="B32" t="n">
         <v>78</v>
       </c>
-      <c r="C32" t="n">
-        <v>-39.03997032739916</v>
-      </c>
-      <c r="D32" t="n">
-        <v>200.8699286350494</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1228,12 +1032,6 @@
       <c r="B33" t="n">
         <v>75</v>
       </c>
-      <c r="C33" t="n">
-        <v>-47.55756785707407</v>
-      </c>
-      <c r="D33" t="n">
-        <v>199.0174897106794</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1241,12 +1039,6 @@
       </c>
       <c r="B34" t="n">
         <v>72</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-43.40630521889556</v>
-      </c>
-      <c r="D34" t="n">
-        <v>203.9040616000127</v>
       </c>
     </row>
   </sheetData>
